--- a/Data/EC/NIT-9005175719.xlsx
+++ b/Data/EC/NIT-9005175719.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{953FAE3B-1C56-4F40-B50D-2066BDCE3806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCC6C8B-FFE1-426D-8430-CE6C6ED8209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{071B7056-27E9-40D0-9847-26CE2CB17CBC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58CA5778-D2BA-42A0-AF45-A545C51EA8B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,64 +71,67 @@
     <t>ALEXIS JOSE ARCIA CHICA</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>2401</t>
   </si>
   <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
     <t>53039048</t>
   </si>
   <si>
     <t>MARCELA ANDREA CHAMORRO LEON</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -542,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E425554D-161C-1108-0A12-9C3F889EA3AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99335617-5FAE-BBBF-3044-02E53A114C58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B26F2B8-EFB7-4460-8C36-BBA176724531}">
-  <dimension ref="B2:J40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AADD511-0AF8-46F4-B98C-FFD9F96F9AD4}">
+  <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -918,7 +921,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -963,7 +966,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -995,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1745700</v>
+        <v>1829300</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,17 +1014,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1048,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1200,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F22" s="18">
-        <v>240900</v>
+        <v>83600</v>
       </c>
       <c r="G22" s="18">
-        <v>6022500</v>
+        <v>2090000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1229,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>83600</v>
@@ -1252,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>83600</v>
@@ -1275,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>83600</v>
@@ -1298,7 +1301,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>83600</v>
@@ -1321,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>83600</v>
@@ -1344,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>83600</v>
@@ -1367,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>83600</v>
@@ -1390,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>83600</v>
@@ -1413,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>83600</v>
@@ -1436,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>83600</v>
@@ -1459,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>83600</v>
@@ -1472,42 +1475,54 @@
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="22" t="s">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="18">
+        <v>83600</v>
+      </c>
+      <c r="G34" s="18">
+        <v>2090000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="24">
-        <v>83600</v>
-      </c>
-      <c r="G34" s="24">
-        <v>2090000</v>
-      </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="H39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="D35" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="24">
+        <v>240900</v>
+      </c>
+      <c r="G35" s="24">
+        <v>6022500</v>
+      </c>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" s="32"/>
       <c r="H40" s="1" t="s">
@@ -1516,12 +1531,23 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="H41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H41:J41"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9005175719.xlsx
+++ b/Data/EC/NIT-9005175719.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCC6C8B-FFE1-426D-8430-CE6C6ED8209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8AB7DA1-7521-4587-89AF-ED30C87B9DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58CA5778-D2BA-42A0-AF45-A545C51EA8B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9751E2C7-F638-4EA1-9D32-86BBDF7E47A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,67 +71,70 @@
     <t>ALEXIS JOSE ARCIA CHICA</t>
   </si>
   <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>53039048</t>
+  </si>
+  <si>
+    <t>MARCELA ANDREA CHAMORRO LEON</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>53039048</t>
-  </si>
-  <si>
-    <t>MARCELA ANDREA CHAMORRO LEON</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99335617-5FAE-BBBF-3044-02E53A114C58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2C0329-7CAF-F04B-3F86-5EDD604D2BA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AADD511-0AF8-46F4-B98C-FFD9F96F9AD4}">
-  <dimension ref="B2:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6B3030-9A43-46A5-8078-9C46E71F1840}">
+  <dimension ref="B2:J42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -921,7 +924,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +969,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +1001,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1829300</v>
+        <v>1912900</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,17 +1017,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1051,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,19 +1206,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>83600</v>
+        <v>240900</v>
       </c>
       <c r="G22" s="18">
-        <v>2090000</v>
+        <v>6335670</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1232,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>83600</v>
@@ -1255,7 +1258,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>83600</v>
@@ -1278,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>83600</v>
@@ -1301,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>83600</v>
@@ -1324,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>83600</v>
@@ -1347,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>83600</v>
@@ -1370,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>83600</v>
@@ -1393,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>83600</v>
@@ -1416,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>83600</v>
@@ -1439,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>83600</v>
@@ -1462,7 +1465,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>83600</v>
@@ -1485,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>83600</v>
@@ -1498,42 +1501,54 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="24">
-        <v>240900</v>
-      </c>
-      <c r="G35" s="24">
-        <v>6022500</v>
-      </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="H40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="F35" s="18">
+        <v>83600</v>
+      </c>
+      <c r="G35" s="18">
+        <v>2090000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="24">
+        <v>83600</v>
+      </c>
+      <c r="G36" s="24">
+        <v>2090000</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="32"/>
       <c r="H41" s="1" t="s">
@@ -1542,12 +1557,23 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="H42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H42:J42"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H40:J40"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
